--- a/versions/v13/docs/mobile-attack-v13.0/mobile-attack-v13.0-software.xlsx
+++ b/versions/v13/docs/mobile-attack-v13.0/mobile-attack-v13.0-software.xlsx
@@ -1600,7 +1600,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -1609,7 +1609,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -1672,7 +1672,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
@@ -1696,7 +1696,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -1708,13 +1708,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -1726,7 +1726,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -1762,7 +1762,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -1798,7 +1798,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -1810,7 +1810,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -1834,7 +1834,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>
